--- a/testData/facebookdata.xlsx
+++ b/testData/facebookdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1572,8 +1572,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
